--- a/Modelling/code/output_model_param-eeg_V-f_t_el-congruency.xlsx
+++ b/Modelling/code/output_model_param-eeg_V-f_t_el-congruency.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thu, 23 Jan 2025</t>
+          <t>Sun, 26 Jan 2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15:05:53</t>
+          <t>16:28:43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
